--- a/level 3/hackerrank - phase 3-mathematics.xlsx
+++ b/level 3/hackerrank - phase 3-mathematics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60885" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
+    <workbookView xWindow="61845" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="level 3 - mathematics" sheetId="14" r:id="rId1"/>
@@ -3271,10 +3271,7 @@
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G117" s="8"/>
       <c r="I117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3283,10 +3280,7 @@
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G118" s="8"/>
       <c r="I118" s="14"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3295,10 +3289,7 @@
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G119" s="8"/>
       <c r="I119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3307,10 +3298,7 @@
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G120" s="8"/>
       <c r="I120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3319,10 +3307,7 @@
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G121" s="8"/>
       <c r="I121" s="14"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3331,10 +3316,7 @@
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G122" s="8"/>
       <c r="I122" s="14"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,10 +3325,7 @@
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G123" s="8"/>
       <c r="I123" s="14"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3355,10 +3334,7 @@
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
@@ -3366,10 +3342,7 @@
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
@@ -3377,10 +3350,7 @@
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G126" s="8"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
@@ -3388,10 +3358,7 @@
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G127" s="8"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
@@ -3399,10 +3366,7 @@
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G128" s="8"/>
     </row>
     <row r="129" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
@@ -3410,10 +3374,7 @@
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G129" s="8"/>
     </row>
     <row r="130" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
@@ -3421,10 +3382,7 @@
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
@@ -3432,10 +3390,7 @@
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G131" s="8"/>
     </row>
     <row r="132" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
@@ -3443,10 +3398,7 @@
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G132" s="8"/>
     </row>
     <row r="133" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
@@ -3454,10 +3406,7 @@
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G133" s="8"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
@@ -3465,10 +3414,7 @@
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G134" s="8"/>
     </row>
     <row r="135" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
@@ -3476,10 +3422,7 @@
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G135" s="8"/>
     </row>
     <row r="136" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
@@ -3487,10 +3430,7 @@
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G136" s="8"/>
     </row>
     <row r="137" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
@@ -3498,10 +3438,7 @@
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="G137" s="8"/>
     </row>
     <row r="138" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
@@ -3509,10 +3446,7 @@
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="8">
-        <f t="shared" ref="G138:G176" si="5">SUM(C138:F138)</f>
-        <v>0</v>
-      </c>
+      <c r="G138" s="8"/>
     </row>
     <row r="139" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
@@ -3520,380 +3454,266 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G139" s="8"/>
     </row>
     <row r="140" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G140" s="8"/>
     </row>
     <row r="141" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G141" s="8"/>
     </row>
     <row r="142" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G142" s="8"/>
     </row>
     <row r="143" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G143" s="8"/>
     </row>
     <row r="144" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G144" s="8"/>
     </row>
     <row r="145" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G145" s="8"/>
     </row>
     <row r="146" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G146" s="8"/>
     </row>
     <row r="147" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G147" s="8"/>
     </row>
     <row r="148" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G148" s="8"/>
     </row>
     <row r="149" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G149" s="8"/>
     </row>
     <row r="150" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G150" s="8"/>
     </row>
     <row r="151" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G151" s="8"/>
     </row>
     <row r="152" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G152" s="8"/>
     </row>
     <row r="153" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G153" s="8"/>
     </row>
     <row r="154" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G154" s="8"/>
     </row>
     <row r="155" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G155" s="8"/>
     </row>
     <row r="156" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G156" s="8"/>
     </row>
     <row r="157" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G157" s="8"/>
     </row>
     <row r="158" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G158" s="8"/>
     </row>
     <row r="159" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G159" s="8"/>
     </row>
     <row r="160" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G160" s="8"/>
     </row>
     <row r="161" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G161" s="8"/>
     </row>
     <row r="162" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G162" s="8"/>
     </row>
     <row r="163" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G163" s="8"/>
     </row>
     <row r="164" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G164" s="8"/>
     </row>
     <row r="165" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G165" s="8"/>
     </row>
     <row r="166" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G167" s="8"/>
     </row>
     <row r="168" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G168" s="8"/>
     </row>
     <row r="169" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G169" s="8"/>
     </row>
     <row r="170" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G170" s="8"/>
     </row>
     <row r="171" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G171" s="8"/>
     </row>
     <row r="172" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G172" s="8"/>
     </row>
     <row r="173" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
-      <c r="G173" s="8">
-        <f>SUM(C173:F173)</f>
-        <v>0</v>
-      </c>
+      <c r="G173" s="8"/>
     </row>
     <row r="174" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
-      <c r="G174" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G174" s="8"/>
     </row>
     <row r="175" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-      <c r="G175" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G175" s="8"/>
     </row>
     <row r="176" spans="3:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
-      <c r="G176" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="G176" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
